--- a/excel_dataset/readers.xlsx
+++ b/excel_dataset/readers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
   <si>
     <t>Reader ID</t>
   </si>
@@ -37,46 +37,370 @@
     <t>Books</t>
   </si>
   <si>
-    <t>My</t>
+    <t>Sang</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>01/01/2000</t>
+    <t>24/03/2025</t>
+  </si>
+  <si>
+    <t>09876543456</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>B1 (x4), B2 (x2)</t>
+  </si>
+  <si>
+    <t>Thien</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>15/08/1995</t>
+  </si>
+  <si>
+    <t>0934212345</t>
+  </si>
+  <si>
+    <t>B2 (x2), B10 (x2)</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>01/07/2000</t>
+  </si>
+  <si>
+    <t>0988123456</t>
+  </si>
+  <si>
+    <t>B3 (x1), B4 (x2)</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>22/10/1993</t>
+  </si>
+  <si>
+    <t>0976543210</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>B5 (x3)</t>
+  </si>
+  <si>
+    <t>nguyễn thị ngọc ánh</t>
+  </si>
+  <si>
+    <t>10/05/2001</t>
+  </si>
+  <si>
+    <t>0923456789</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>B6 (x1), B7 (x4)</t>
+  </si>
+  <si>
+    <t>nguyễn vân ngọc khánh</t>
+  </si>
+  <si>
+    <t>04/02/1990</t>
+  </si>
+  <si>
+    <t>0934123456</t>
+  </si>
+  <si>
+    <t>B8 (x2)</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>19/06/2002</t>
+  </si>
+  <si>
+    <t>0978123456</t>
+  </si>
+  <si>
+    <t>B9 (x1)</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>13/09/1985</t>
+  </si>
+  <si>
+    <t>0912123456</t>
+  </si>
+  <si>
+    <t>B10 (x2)</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>25/12/1997</t>
+  </si>
+  <si>
+    <t>0945123456</t>
+  </si>
+  <si>
+    <t>B11 (x1)</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>17/11/1992</t>
+  </si>
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>B12 (x3)</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>22/07/1996</t>
+  </si>
+  <si>
+    <t>0932567890</t>
+  </si>
+  <si>
+    <t>B13 (x2)</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>02/02/1994</t>
+  </si>
+  <si>
+    <t>0971234567</t>
+  </si>
+  <si>
+    <t>B14 (x1)</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>09/03/1998</t>
+  </si>
+  <si>
+    <t>0907890123</t>
+  </si>
+  <si>
+    <t>B15 (x2)</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>18/04/1990</t>
+  </si>
+  <si>
+    <t>0918765432</t>
+  </si>
+  <si>
+    <t>B16 (x1)</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>05/10/2000</t>
+  </si>
+  <si>
+    <t>0946758392</t>
+  </si>
+  <si>
+    <t>B17 (x3)</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>27/08/1994</t>
+  </si>
+  <si>
+    <t>0934126789</t>
+  </si>
+  <si>
+    <t>B18 (x2)</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>15/05/1995</t>
+  </si>
+  <si>
+    <t>0912456789</t>
+  </si>
+  <si>
+    <t>B19 (x1)</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>06/01/1991</t>
+  </si>
+  <si>
+    <t>0938765432</t>
+  </si>
+  <si>
+    <t>B20 (x2)</t>
+  </si>
+  <si>
+    <t>Quincy</t>
+  </si>
+  <si>
+    <t>28/09/1987</t>
+  </si>
+  <si>
+    <t>0945678901</t>
+  </si>
+  <si>
+    <t>B21 (x1)</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>12/12/1999</t>
+  </si>
+  <si>
+    <t>0916543210</t>
+  </si>
+  <si>
+    <t>B22 (x3)</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>14/03/1993</t>
+  </si>
+  <si>
+    <t>0978901234</t>
+  </si>
+  <si>
+    <t>B23 (x2)</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>23/07/2001</t>
+  </si>
+  <si>
+    <t>0929876543</t>
+  </si>
+  <si>
+    <t>B24 (x1)</t>
+  </si>
+  <si>
+    <t>Ursula</t>
+  </si>
+  <si>
+    <t>17/09/1998</t>
+  </si>
+  <si>
+    <t>0983412345</t>
+  </si>
+  <si>
+    <t>B25 (x2)</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>19/06/1990</t>
+  </si>
+  <si>
+    <t>0913212345</t>
+  </si>
+  <si>
+    <t>B26 (x1)</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>20/03/1995</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>B27 (x3)</t>
+  </si>
+  <si>
+    <t>Xander</t>
+  </si>
+  <si>
+    <t>11/11/1992</t>
+  </si>
+  <si>
+    <t>0934109876</t>
+  </si>
+  <si>
+    <t>B28 (x1)</t>
+  </si>
+  <si>
+    <t>Yara</t>
+  </si>
+  <si>
+    <t>04/06/2003</t>
+  </si>
+  <si>
+    <t>B29 (x2)</t>
+  </si>
+  <si>
+    <t>Zane</t>
+  </si>
+  <si>
+    <t>30/12/1989</t>
+  </si>
+  <si>
+    <t>0943212345</t>
+  </si>
+  <si>
+    <t>B30 (x1)</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>15/08/1997</t>
   </si>
   <si>
     <t>B1 (x2)</t>
   </si>
   <si>
-    <t>Sang</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>B10 (x8), B7 (x2), B1 (x5), B3 (x4)</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>B10 (x2)</t>
-  </si>
-  <si>
-    <t>Thien</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>10/01/2000</t>
-  </si>
-  <si>
-    <t>01234</t>
-  </si>
-  <si>
-    <t>BD</t>
+    <t>John</t>
+  </si>
+  <si>
+    <t>12/01/1988</t>
+  </si>
+  <si>
+    <t>B2 (x1)</t>
   </si>
 </sst>
 </file>
@@ -417,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,42 +786,60 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -505,13 +847,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -519,19 +870,597 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
